--- a/ExampleData/VolumeInteraction.xlsx
+++ b/ExampleData/VolumeInteraction.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schen\OneDrive\Documents\Austenite_Calculator\Spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schen\Documents\GitHub\AusteniteCalculator\ExampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2ACF73-B2CD-47C1-AEFE-39051223822C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2B2838-21CC-49B7-A93A-BD6F209E9AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{A4ED1731-CBF3-417D-B425-49DAD458C734}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Inputs/Instrument Parameters</t>
   </si>
@@ -218,16 +218,19 @@
   <si>
     <t>Beam param (cm)</t>
   </si>
+  <si>
+    <t>µm^3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.000E+00"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +259,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -322,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -343,14 +352,27 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -774,24 +796,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E4FEF6-4F7C-4AB3-9E19-631D9E23E155}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7265625" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" customWidth="1"/>
+    <col min="5" max="9" width="20.6328125" customWidth="1"/>
     <col min="10" max="10" width="10.90625" customWidth="1"/>
     <col min="11" max="11" width="11.26953125" customWidth="1"/>
     <col min="12" max="12" width="11.08984375" customWidth="1"/>
     <col min="13" max="13" width="9.81640625" customWidth="1"/>
+    <col min="14" max="14" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="46" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="46" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5"/>
       <c r="B1" s="8" t="s">
         <v>23</v>
@@ -829,8 +852,11 @@
       <c r="M1" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
@@ -860,8 +886,123 @@
         <f>K2*10000</f>
         <v>2.914893839483359</v>
       </c>
+      <c r="M2" s="14">
+        <f>K2*J2*J2</f>
+        <v>2.914893839483359E-6</v>
+      </c>
+      <c r="N2" s="14">
+        <f>10^4^3*M2</f>
+        <v>2914893.8394833589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="5:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="5:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E6:J6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
